--- a/Assets/Excel/Language.xlsx
+++ b/Assets/Excel/Language.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11930" windowHeight="7750"/>
+    <workbookView windowWidth="11950" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>//Remark</t>
   </si>
@@ -35,6 +48,17 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>tx_menu_language</t>
+  </si>
+  <si>
+    <t>Current Language: 
+English</t>
+  </si>
+  <si>
+    <t>Current Language: 
+中文</t>
   </si>
   <si>
     <t>tx_skill_cost</t>
@@ -49,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -659,9 +683,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -974,15 +1001,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="19.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="26.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="36.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1018,18 +1047,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" ht="28" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Language.xlsx
+++ b/Assets/Excel/Language.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11950" windowHeight="12080"/>
+    <workbookView windowWidth="9430" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>//Remark</t>
   </si>
@@ -68,6 +68,24 @@
   </si>
   <si>
     <t>技能消耗</t>
+  </si>
+  <si>
+    <t>tx_tutorial_continue</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>继续</t>
+  </si>
+  <si>
+    <t>tx_tutorial_finish</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>完成</t>
   </si>
 </sst>
 </file>
@@ -1001,15 +1019,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="19.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="22.2727272727273" customWidth="1"/>
     <col min="3" max="3" width="26.8181818181818" customWidth="1"/>
     <col min="4" max="4" width="36.1818181818182" customWidth="1"/>
   </cols>
@@ -1075,6 +1093,34 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Excel/Language.xlsx
+++ b/Assets/Excel/Language.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9430" windowHeight="11040"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
   </si>
   <si>
     <t>Current Language: 
-中文</t>
+中文（部分翻译）</t>
   </si>
   <si>
     <t>tx_skill_cost</t>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="3"/>

--- a/Assets/Excel/Language.xlsx
+++ b/Assets/Excel/Language.xlsx
@@ -53,11 +53,11 @@
     <t>tx_menu_language</t>
   </si>
   <si>
-    <t>Current Language: 
+    <t>Current Language
 English</t>
   </si>
   <si>
-    <t>Current Language: 
+    <t>Current Language
 中文（部分翻译）</t>
   </si>
   <si>

--- a/Assets/Excel/Language.xlsx
+++ b/Assets/Excel/Language.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>//Remark</t>
   </si>
@@ -59,6 +59,69 @@
   <si>
     <t>Current Language
 中文（部分翻译）</t>
+  </si>
+  <si>
+    <t>tx_menu_credit_title</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>制作名单</t>
+  </si>
+  <si>
+    <t>tx_menu_credit_joshua</t>
+  </si>
+  <si>
+    <t>Joshua Rabbit</t>
+  </si>
+  <si>
+    <t>一只纸兔</t>
+  </si>
+  <si>
+    <t>tx_menu_credit_design</t>
+  </si>
+  <si>
+    <t>Game Designer</t>
+  </si>
+  <si>
+    <t>策划</t>
+  </si>
+  <si>
+    <t>tx_menu_credit_program</t>
+  </si>
+  <si>
+    <t>Programmer</t>
+  </si>
+  <si>
+    <t>程序</t>
+  </si>
+  <si>
+    <t>tx_menu_credit_art</t>
+  </si>
+  <si>
+    <t>Artist</t>
+  </si>
+  <si>
+    <t>美术</t>
+  </si>
+  <si>
+    <t>tx_menu_credit_voice</t>
+  </si>
+  <si>
+    <t>Voice</t>
+  </si>
+  <si>
+    <t>配音</t>
+  </si>
+  <si>
+    <t>tx_menu_credit_portfolio</t>
+  </si>
+  <si>
+    <t>This is my itch page</t>
+  </si>
+  <si>
+    <t>这是我的Itch</t>
   </si>
   <si>
     <t>tx_skill_cost</t>
@@ -1019,15 +1082,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="22.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="25.2727272727273" customWidth="1"/>
     <col min="3" max="3" width="26.8181818181818" customWidth="1"/>
     <col min="4" max="4" width="36.1818181818182" customWidth="1"/>
   </cols>
@@ -1086,10 +1149,10 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1100,10 +1163,10 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1114,11 +1177,109 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Language.xlsx
+++ b/Assets/Excel/Language.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>//Remark</t>
   </si>
@@ -124,13 +124,76 @@
     <t>这是我的Itch</t>
   </si>
   <si>
+    <t>tx_attribute_HP</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>生命</t>
+  </si>
+  <si>
+    <t>tx_attribute_ATK</t>
+  </si>
+  <si>
+    <t>ATK</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>tx_attribute_DEF</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>tx_attribute_RES</t>
+  </si>
+  <si>
+    <t>RES</t>
+  </si>
+  <si>
+    <t>魔防</t>
+  </si>
+  <si>
+    <t>tx_attribute_MOV</t>
+  </si>
+  <si>
+    <t>MOV</t>
+  </si>
+  <si>
+    <t>移动力</t>
+  </si>
+  <si>
+    <t>tx_attribute_SP</t>
+  </si>
+  <si>
+    <t>Confidence</t>
+  </si>
+  <si>
+    <t>自信</t>
+  </si>
+  <si>
+    <t>tx_skill_reset</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>重置技能</t>
+  </si>
+  <si>
     <t>tx_skill_cost</t>
   </si>
   <si>
     <t>Cost:</t>
   </si>
   <si>
-    <t>技能消耗</t>
+    <t>消耗：</t>
   </si>
   <si>
     <t>tx_tutorial_continue</t>
@@ -1082,10 +1145,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1247,10 +1310,10 @@
       <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1261,10 +1324,10 @@
       <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1275,11 +1338,109 @@
       <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Language.xlsx
+++ b/Assets/Excel/Language.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>//Remark</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>这是我的Itch</t>
+  </si>
+  <si>
+    <t>tx_basic_dayNum</t>
+  </si>
+  <si>
+    <t>Day {0}</t>
+  </si>
+  <si>
+    <t>第{0}天</t>
   </si>
   <si>
     <t>tx_attribute_HP</t>
@@ -1145,10 +1154,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1408,10 +1417,10 @@
       <c r="B19" t="s">
         <v>52</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1441,6 +1450,20 @@
       </c>
       <c r="D21" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Language.xlsx
+++ b/Assets/Excel/Language.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="115">
   <si>
     <t>//Remark</t>
   </si>
@@ -124,6 +124,42 @@
     <t>这是我的Itch</t>
   </si>
   <si>
+    <t>tx_menu_save</t>
+  </si>
+  <si>
+    <t>Time Record</t>
+  </si>
+  <si>
+    <t>时间记录</t>
+  </si>
+  <si>
+    <t>tx_menu_load</t>
+  </si>
+  <si>
+    <t>Time Leap</t>
+  </si>
+  <si>
+    <t>时间回溯</t>
+  </si>
+  <si>
+    <t>tx_menu_back</t>
+  </si>
+  <si>
+    <t>Back To Menu</t>
+  </si>
+  <si>
+    <t>回到主界面</t>
+  </si>
+  <si>
+    <t>tx_menu_delete</t>
+  </si>
+  <si>
+    <t>Clear Save File</t>
+  </si>
+  <si>
+    <t>删除存档</t>
+  </si>
+  <si>
     <t>tx_basic_dayNum</t>
   </si>
   <si>
@@ -133,6 +169,15 @@
     <t>第{0}天</t>
   </si>
   <si>
+    <t>tx_basic_turnNum</t>
+  </si>
+  <si>
+    <t>Turn {0}</t>
+  </si>
+  <si>
+    <t>第{0}回合</t>
+  </si>
+  <si>
     <t>tx_attribute_HP</t>
   </si>
   <si>
@@ -205,6 +250,51 @@
     <t>消耗：</t>
   </si>
   <si>
+    <t>tx_skill_type_normal</t>
+  </si>
+  <si>
+    <t>Normal Attack</t>
+  </si>
+  <si>
+    <t>普通攻击</t>
+  </si>
+  <si>
+    <t>tx_skill_type_hurt</t>
+  </si>
+  <si>
+    <t>Hurt Skill</t>
+  </si>
+  <si>
+    <t>伤害技能</t>
+  </si>
+  <si>
+    <t>tx_skill_type_support</t>
+  </si>
+  <si>
+    <t>Support Skill</t>
+  </si>
+  <si>
+    <t>支援技能</t>
+  </si>
+  <si>
+    <t>tx_skill_type_ultimate</t>
+  </si>
+  <si>
+    <t>Ultimate Skill</t>
+  </si>
+  <si>
+    <t>究极技能</t>
+  </si>
+  <si>
+    <t>tx_skill_type_passive</t>
+  </si>
+  <si>
+    <t>Passive Skill</t>
+  </si>
+  <si>
+    <t>被动技能</t>
+  </si>
+  <si>
     <t>tx_tutorial_continue</t>
   </si>
   <si>
@@ -221,6 +311,69 @@
   </si>
   <si>
     <t>完成</t>
+  </si>
+  <si>
+    <t>tx_day_title_1</t>
+  </si>
+  <si>
+    <t>Sneak Attacked</t>
+  </si>
+  <si>
+    <t>被偷袭了！</t>
+  </si>
+  <si>
+    <t>tx_day_title_2</t>
+  </si>
+  <si>
+    <t>Write Resume</t>
+  </si>
+  <si>
+    <t>写简历！</t>
+  </si>
+  <si>
+    <t>tx_day_title_3</t>
+  </si>
+  <si>
+    <t>CV Screening</t>
+  </si>
+  <si>
+    <t>简历初筛！</t>
+  </si>
+  <si>
+    <t>tx_day_title_4</t>
+  </si>
+  <si>
+    <t>Group Interview</t>
+  </si>
+  <si>
+    <t>群面开始！</t>
+  </si>
+  <si>
+    <t>tx_day_title_5</t>
+  </si>
+  <si>
+    <t>Second Interview</t>
+  </si>
+  <si>
+    <t>二面开始！</t>
+  </si>
+  <si>
+    <t>tx_day_title_6</t>
+  </si>
+  <si>
+    <t>CEO Interview</t>
+  </si>
+  <si>
+    <t>CEO面开始！</t>
+  </si>
+  <si>
+    <t>tx_day_title_7</t>
+  </si>
+  <si>
+    <t>Destroy Interview</t>
+  </si>
+  <si>
+    <t>将面试的概念摧毁！</t>
   </si>
 </sst>
 </file>
@@ -1154,10 +1307,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1431,10 +1584,10 @@
       <c r="B20" t="s">
         <v>55</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1445,10 +1598,10 @@
       <c r="B21" t="s">
         <v>58</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1459,11 +1612,249 @@
       <c r="B22" t="s">
         <v>61</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Language.xlsx
+++ b/Assets/Excel/Language.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="136">
   <si>
     <t>//Remark</t>
   </si>
@@ -232,6 +232,24 @@
     <t>自信</t>
   </si>
   <si>
+    <t>tx_attribute_range</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>射程</t>
+  </si>
+  <si>
+    <t>tx_attribute_radius</t>
+  </si>
+  <si>
+    <t>Radius</t>
+  </si>
+  <si>
+    <t>范围</t>
+  </si>
+  <si>
     <t>tx_skill_reset</t>
   </si>
   <si>
@@ -374,6 +392,51 @@
   </si>
   <si>
     <t>将面试的概念摧毁！</t>
+  </si>
+  <si>
+    <t>tx_rarity_common</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>常见</t>
+  </si>
+  <si>
+    <t>tx_rarity_uncommon</t>
+  </si>
+  <si>
+    <t>Uncommon</t>
+  </si>
+  <si>
+    <t>非常见</t>
+  </si>
+  <si>
+    <t>tx_rarity_rare</t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>稀有</t>
+  </si>
+  <si>
+    <t>tx_rarity_epic</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>卓越</t>
+  </si>
+  <si>
+    <t>tx_rarity_legendary</t>
+  </si>
+  <si>
+    <t>Legendary</t>
+  </si>
+  <si>
+    <t>传说</t>
   </si>
 </sst>
 </file>
@@ -1307,10 +1370,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1654,10 +1717,10 @@
       <c r="B25" t="s">
         <v>70</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1668,10 +1731,10 @@
       <c r="B26" t="s">
         <v>73</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1855,6 +1918,104 @@
       </c>
       <c r="D39" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Language.xlsx
+++ b/Assets/Excel/Language.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="11410" windowHeight="7320"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="157">
   <si>
     <t>//Remark</t>
   </si>
@@ -265,7 +265,16 @@
     <t>Cost:</t>
   </si>
   <si>
-    <t>消耗：</t>
+    <t>技能消耗：</t>
+  </si>
+  <si>
+    <t>tx_skill_costSP</t>
+  </si>
+  <si>
+    <t>Unlock Cost: {0}</t>
+  </si>
+  <si>
+    <t>解锁消耗自信：{0}</t>
   </si>
   <si>
     <t>tx_skill_type_normal</t>
@@ -313,7 +322,7 @@
     <t>被动技能</t>
   </si>
   <si>
-    <t>tx_tutorial_continue</t>
+    <t>tx_common_continue</t>
   </si>
   <si>
     <t>Continue</t>
@@ -322,7 +331,7 @@
     <t>继续</t>
   </si>
   <si>
-    <t>tx_tutorial_finish</t>
+    <t>tx_common_finish</t>
   </si>
   <si>
     <t>Finish</t>
@@ -331,6 +340,24 @@
     <t>完成</t>
   </si>
   <si>
+    <t>tx_common_skip</t>
+  </si>
+  <si>
+    <t>Skip</t>
+  </si>
+  <si>
+    <t>跳过</t>
+  </si>
+  <si>
+    <t>tx_common_refresh</t>
+  </si>
+  <si>
+    <t>Refresh</t>
+  </si>
+  <si>
+    <t>刷新</t>
+  </si>
+  <si>
     <t>tx_day_title_1</t>
   </si>
   <si>
@@ -437,6 +464,42 @@
   </si>
   <si>
     <t>传说</t>
+  </si>
+  <si>
+    <t>tx_victory_title</t>
+  </si>
+  <si>
+    <t>Victory</t>
+  </si>
+  <si>
+    <t>面试终了</t>
+  </si>
+  <si>
+    <t>tx_victory_map</t>
+  </si>
+  <si>
+    <t>Select a map clip</t>
+  </si>
+  <si>
+    <t>选择一个地图块</t>
+  </si>
+  <si>
+    <t>tx_victory_plant</t>
+  </si>
+  <si>
+    <t>Select a plant</t>
+  </si>
+  <si>
+    <t>选择一个植物</t>
+  </si>
+  <si>
+    <t>tx_victory_putMouseTileTip</t>
+  </si>
+  <si>
+    <t>Put the mouse over it to read the detail</t>
+  </si>
+  <si>
+    <t>鼠标放在标签上可阅读地块详情</t>
   </si>
 </sst>
 </file>
@@ -1370,10 +1433,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2018,6 +2081,104 @@
         <v>135</v>
       </c>
     </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" t="s">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Excel/Language.xlsx
+++ b/Assets/Excel/Language.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11410" windowHeight="7320"/>
+    <workbookView windowWidth="13170" windowHeight="11800"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="193">
   <si>
     <t>//Remark</t>
   </si>
@@ -500,6 +500,114 @@
   </si>
   <si>
     <t>鼠标放在标签上可阅读地块详情</t>
+  </si>
+  <si>
+    <t>btnMainSkill</t>
+  </si>
+  <si>
+    <t>btnMainSkill_EN</t>
+  </si>
+  <si>
+    <t>btnMainSkill_CN</t>
+  </si>
+  <si>
+    <t>btnMainMap</t>
+  </si>
+  <si>
+    <t>btnMainMap_EN</t>
+  </si>
+  <si>
+    <t>btnMainMap_CN</t>
+  </si>
+  <si>
+    <t>btnMainPlant</t>
+  </si>
+  <si>
+    <t>btnMainPlant_EN</t>
+  </si>
+  <si>
+    <t>btnMainPlant_CN</t>
+  </si>
+  <si>
+    <t>btnMainSystem</t>
+  </si>
+  <si>
+    <t>btnMainSystem_EN</t>
+  </si>
+  <si>
+    <t>btnMainSystem_CN</t>
+  </si>
+  <si>
+    <t>btnMainHelp</t>
+  </si>
+  <si>
+    <t>btnMainHelp_EN</t>
+  </si>
+  <si>
+    <t>btnMainHelp_CN</t>
+  </si>
+  <si>
+    <t>btnMainBattle</t>
+  </si>
+  <si>
+    <t>btnMainBattle_EN</t>
+  </si>
+  <si>
+    <t>btnMainBattle_CN</t>
+  </si>
+  <si>
+    <t>btnMainEndTurn</t>
+  </si>
+  <si>
+    <t>btnMainEndTurn_EN</t>
+  </si>
+  <si>
+    <t>btnMainEndTurn_CN</t>
+  </si>
+  <si>
+    <t>btnSwitchCharacter</t>
+  </si>
+  <si>
+    <t>btnSwitchCharacter_EN</t>
+  </si>
+  <si>
+    <t>btnSwitchCharacter_CN</t>
+  </si>
+  <si>
+    <t>txImgMove</t>
+  </si>
+  <si>
+    <t>txImgMove_EN</t>
+  </si>
+  <si>
+    <t>txImgMove_CN</t>
+  </si>
+  <si>
+    <t>txImgAttack</t>
+  </si>
+  <si>
+    <t>txImgAttack_EN</t>
+  </si>
+  <si>
+    <t>txImgAttack_CN</t>
+  </si>
+  <si>
+    <t>txImgSkill</t>
+  </si>
+  <si>
+    <t>txImgSkill_EN</t>
+  </si>
+  <si>
+    <t>txImgSkill_CN</t>
+  </si>
+  <si>
+    <t>txImgAny</t>
+  </si>
+  <si>
+    <t>txImgAny_EN</t>
+  </si>
+  <si>
+    <t>txImgAny_CN</t>
   </si>
 </sst>
 </file>
@@ -1433,10 +1541,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2179,6 +2287,174 @@
         <v>156</v>
       </c>
     </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" t="s">
+        <v>179</v>
+      </c>
+      <c r="D61" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" t="s">
+        <v>185</v>
+      </c>
+      <c r="D63" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" t="s">
+        <v>188</v>
+      </c>
+      <c r="D64" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" t="s">
+        <v>192</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Excel/Language.xlsx
+++ b/Assets/Excel/Language.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="199">
   <si>
     <t>//Remark</t>
   </si>
@@ -356,6 +356,24 @@
   </si>
   <si>
     <t>刷新</t>
+  </si>
+  <si>
+    <t>tx_common_save</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>存储</t>
+  </si>
+  <si>
+    <t>tx_map_reservePath</t>
+  </si>
+  <si>
+    <t>Please reserve a path</t>
+  </si>
+  <si>
+    <t>请至少留出一条路</t>
   </si>
   <si>
     <t>tx_day_title_1</t>
@@ -1541,10 +1559,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2455,6 +2473,34 @@
         <v>192</v>
       </c>
     </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" t="s">
+        <v>194</v>
+      </c>
+      <c r="D66" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" t="s">
+        <v>197</v>
+      </c>
+      <c r="D67" t="s">
+        <v>198</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Excel/Language.xlsx
+++ b/Assets/Excel/Language.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="202">
   <si>
     <t>//Remark</t>
   </si>
@@ -518,6 +518,15 @@
   </si>
   <si>
     <t>鼠标放在标签上可阅读地块详情</t>
+  </si>
+  <si>
+    <t>tx_detail_tab</t>
+  </si>
+  <si>
+    <t>Press TAB for more detail</t>
+  </si>
+  <si>
+    <t>按住TAB显示更多详情</t>
   </si>
   <si>
     <t>btnMainSkill</t>
@@ -1559,10 +1568,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2501,6 +2510,20 @@
         <v>198</v>
       </c>
     </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" t="s">
+        <v>200</v>
+      </c>
+      <c r="D68" t="s">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Excel/Language.xlsx
+++ b/Assets/Excel/Language.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13170" windowHeight="11800"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -118,10 +118,10 @@
     <t>tx_menu_credit_portfolio</t>
   </si>
   <si>
-    <t>This is my itch page</t>
-  </si>
-  <si>
-    <t>这是我的Itch</t>
+    <t>Personal Website</t>
+  </si>
+  <si>
+    <t>个人网站</t>
   </si>
   <si>
     <t>tx_menu_save</t>
@@ -1570,8 +1570,8 @@
   <sheetPr/>
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
